--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_4_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_4_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.89000000000045</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002167958567014128</v>
+        <v>0.0001062828338950217</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002167958567014128</v>
+        <v>0.0001062828338950217</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>36.93330427243968</v>
+        <v>38.87093925827847</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[13.914714756415215, 59.951893788464155]</t>
+          <t>[19.90014128266175, 57.84173723389519]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.002304625258620963</v>
+        <v>0.0001568204925483929</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002304625258620963</v>
+        <v>0.0001568204925483929</v>
       </c>
       <c r="P2" t="n">
-        <v>1.553500271144503</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.6855527512338098, 2.421447791055196]</t>
+          <t>[1.0000264903318863, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0007778663905859684</v>
+        <v>4.45886434841114e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0007778663905859684</v>
+        <v>4.45886434841114e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>56.82190884735171</v>
+        <v>62.4724186613745</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.558616370384755, 71.08520132431866]</t>
+          <t>[50.503372343305486, 74.44146497944351]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.183366903414253e-10</v>
+        <v>1.06137321154165e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>3.183366903414253e-10</v>
+        <v>1.06137321154165e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>18.73601601601635</v>
+        <v>18.73333333333371</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.29775775775803</v>
+        <v>16.20180180180213</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.17427427427467</v>
+        <v>21.2648648648653</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.89000000000045</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001353754162285115</v>
+        <v>0.01502206297587538</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001353754162285115</v>
+        <v>0.01502206297587538</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>39.71339614339105</v>
+        <v>29.19911776625503</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[13.149003047877557, 66.27778923890455]</t>
+          <t>[3.6963544936542476, 54.70188103885582]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.004258979311988931</v>
+        <v>0.02577149107343613</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004258979311988931</v>
+        <v>0.02577149107343613</v>
       </c>
       <c r="P3" t="n">
-        <v>1.239026532046426</v>
+        <v>1.226447582482502</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5220264069028087, 1.9560266571900424]</t>
+          <t>[0.0691842226015762, 2.383710942363427]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.001124036014991558</v>
+        <v>0.03828303824289958</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001124036014991558</v>
+        <v>0.03828303824289958</v>
       </c>
       <c r="T3" t="n">
-        <v>69.88516022795646</v>
+        <v>64.7354401903863</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[55.29645273037394, 84.47386772553898]</t>
+          <t>[50.87367847519599, 78.59720190557661]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.577182828782497e-12</v>
+        <v>3.416378291376532e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.577182828782497e-12</v>
+        <v>3.416378291376532e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>19.98176176176212</v>
+        <v>20.35351351351393</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.14146146146177</v>
+        <v>15.69549549549581</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.82206206206248</v>
+        <v>25.01153153153204</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.89000000000045</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00151727077776731</v>
+        <v>0.0003838091702780266</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00151727077776731</v>
+        <v>0.0003838091702780266</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>40.40623399365853</v>
+        <v>41.33026632083787</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[13.97865591964019, 66.83381206767687]</t>
+          <t>[18.659273149263072, 64.00125949241267]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.003528851419165591</v>
+        <v>0.0006367954829931133</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003528851419165591</v>
+        <v>0.0006367954829931133</v>
       </c>
       <c r="P4" t="n">
-        <v>1.817658211986887</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0503422885875784, 2.5849741353861964]</t>
+          <t>[0.761026448617347, 2.1698687997767347]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.963154712458781e-05</v>
+        <v>0.0001284686594120732</v>
       </c>
       <c r="S4" t="n">
-        <v>1.963154712458781e-05</v>
+        <v>0.0001284686594120732</v>
       </c>
       <c r="T4" t="n">
-        <v>55.75138795434889</v>
+        <v>57.08785236312843</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[40.65552410662286, 70.84725180207491]</t>
+          <t>[43.20487217329323, 70.97083255296363]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.291071332649608e-09</v>
+        <v>1.3439316326469e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>2.291071332649608e-09</v>
+        <v>1.3439316326469e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>17.68958958958991</v>
+        <v>19.39153153153192</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.64996996997024</v>
+        <v>16.55621621621655</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.72920920920959</v>
+        <v>22.2268468468473</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.89000000000045</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.911536730267674e-05</v>
+        <v>0.0001043398071879365</v>
       </c>
       <c r="I5" t="n">
-        <v>4.911536730267674e-05</v>
+        <v>0.0001043398071879365</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>43.52011179263844</v>
+        <v>47.79382248088432</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[19.9875413629845, 67.05268222229238]</t>
+          <t>[20.68850132464634, 74.8991436371223]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0005427805508124717</v>
+        <v>0.0009120575221266414</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0005427805508124717</v>
+        <v>0.0009120575221266414</v>
       </c>
       <c r="P5" t="n">
-        <v>1.037763339023655</v>
+        <v>0.9119738433844242</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.4968685077749626, 1.5786581702723481]</t>
+          <t>[0.37107901213573147, 1.452868674633117]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0003548625382139292</v>
+        <v>0.001438956224608212</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0003548625382139292</v>
+        <v>0.001438956224608212</v>
       </c>
       <c r="T5" t="n">
-        <v>50.42171009532958</v>
+        <v>52.49260572312033</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[37.965681921391194, 62.877738269267965]</t>
+          <t>[38.257640901560116, 66.72757054468056]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.066198323547042e-10</v>
+        <v>2.380017516401267e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>2.066198323547042e-10</v>
+        <v>2.380017516401267e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>20.77903903903942</v>
+        <v>21.61927927927972</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.6363563563567</v>
+        <v>19.44216216216256</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.92172172172214</v>
+        <v>23.79639639639688</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.89000000000045</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001042695155944351</v>
+        <v>0.000107428758387984</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001042695155944351</v>
+        <v>0.000107428758387984</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>37.61673908542774</v>
+        <v>49.17154188226192</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[12.361410622970098, 62.87206754788538]</t>
+          <t>[21.415013285267293, 76.92807047925655]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.004390491078749115</v>
+        <v>0.0008681269631478639</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004390491078749115</v>
+        <v>0.0008681269631478639</v>
       </c>
       <c r="P6" t="n">
-        <v>1.037763339023655</v>
+        <v>0.4968685077749617</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.37107901213573147, 1.7044476659115793]</t>
+          <t>[-0.09434212172942402, 1.0880791372793475]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.003022815801378753</v>
+        <v>0.0974253395720226</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003022815801378753</v>
+        <v>0.0974253395720226</v>
       </c>
       <c r="T6" t="n">
-        <v>64.9933927624779</v>
+        <v>59.7245644022255</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[51.58087803815566, 78.40590748680013]</t>
+          <t>[45.318795525218235, 74.13033327923276]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.107558489366056e-12</v>
+        <v>1.071862598678308e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.107558489366056e-12</v>
+        <v>1.071862598678308e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>20.77903903903942</v>
+        <v>23.29009009009057</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.13805805805839</v>
+        <v>20.91045045045088</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.42002002002044</v>
+        <v>25.66972972973025</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.89000000000045</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.343624051636688e-06</v>
+        <v>0.03864481252724705</v>
       </c>
       <c r="I7" t="n">
-        <v>7.343624051636688e-06</v>
+        <v>0.03864481252724705</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>57.99203964412957</v>
+        <v>28.43266546021532</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[32.16993880760809, 83.81414048065105]</t>
+          <t>[1.2727709978043151, 55.59255992262633]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.413251047252764e-05</v>
+        <v>0.04058840410917419</v>
       </c>
       <c r="O7" t="n">
-        <v>4.413251047252764e-05</v>
+        <v>0.04058840410917419</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3459211130078854</v>
+        <v>-0.1761052938949232</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.15723686954903915, 0.84907909556481]</t>
+          <t>[-1.515763422452733, 1.1635528346628865]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1729730529460696</v>
+        <v>0.7923996792808596</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1729730529460696</v>
+        <v>0.7923996792808596</v>
       </c>
       <c r="T7" t="n">
-        <v>59.97222055194327</v>
+        <v>55.42309316855381</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.42290569363756, 74.52153541024897]</t>
+          <t>[40.39936205482209, 70.44682428228552]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.257545179100816e-10</v>
+        <v>2.356484340992893e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.257545179100816e-10</v>
+        <v>2.356484340992893e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>23.51967967968011</v>
+        <v>0.7088288288288425</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.52648648648687</v>
+        <v>-4.68333333333343</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.51287287287334</v>
+        <v>6.100990990991115</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.54000000000024</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03029954444008331</v>
+        <v>0.0008728088524112554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03029954444008331</v>
+        <v>0.0008728088524112554</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>28.14966554970079</v>
+        <v>43.90451442465343</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[2.253741659207762, 54.04558944019382]</t>
+          <t>[18.464721963186165, 69.3443068861207]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.03379523311437205</v>
+        <v>0.001139078217042178</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03379523311437205</v>
+        <v>0.001139078217042178</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2704474156243464</v>
+        <v>0.006289474781961069</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.0817896624973864, 1.6226844937460791]</t>
+          <t>[-0.7610264486173479, 0.77360539818127]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6889875392040854</v>
+        <v>0.9869012674208855</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6889875392040854</v>
+        <v>0.9869012674208855</v>
       </c>
       <c r="T8" t="n">
-        <v>63.79210460227915</v>
+        <v>44.00013368115233</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.110313289113606, 78.47389591544469]</t>
+          <t>[28.277200880807122, 59.72306648149755]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.85467205429768e-11</v>
+        <v>1.078561616463247e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>2.85467205429768e-11</v>
+        <v>1.078561616463247e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>22.526766766767</v>
+        <v>22.81713713713727</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.46060060060078</v>
+        <v>20.02786786786798</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.59293293293322</v>
+        <v>25.60640640640656</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.54000000000024</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008628456985484423</v>
+        <v>4.520937989338503e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008628456985484423</v>
+        <v>4.520937989338503e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>37.82338863467709</v>
+        <v>47.67183133600916</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[12.804807787179683, 62.84196948217449]</t>
+          <t>[22.639588067797817, 72.70407460422051]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.00388108433562695</v>
+        <v>0.0003873465377886021</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00388108433562695</v>
+        <v>0.0003873465377886021</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4088158608275005</v>
+        <v>0.4465527095192696</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.2830263651882694, 1.1006580868432705]</t>
+          <t>[-0.09434212172942491, 0.9874475407679641]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.240227733662792</v>
+        <v>0.1033020399899047</v>
       </c>
       <c r="S9" t="n">
-        <v>0.240227733662792</v>
+        <v>0.1033020399899047</v>
       </c>
       <c r="T9" t="n">
-        <v>58.87357938460772</v>
+        <v>50.37795982839627</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.55816427575613, 72.18899449345932]</t>
+          <t>[36.69492126945646, 64.06099838733608]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.724975717820598e-11</v>
+        <v>2.47626941174417e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>1.724975717820598e-11</v>
+        <v>2.47626941174417e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>22.00836836836859</v>
+        <v>21.21673673673686</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.41637637637658</v>
+        <v>19.25053053053064</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.60036036036061</v>
+        <v>23.18294294294308</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.54000000000024</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01578051370853639</v>
+        <v>0.002463556132360045</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01578051370853639</v>
+        <v>0.002463556132360045</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>31.51659220660886</v>
+        <v>41.13295238875114</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[3.0591972353775745, 59.973987177840144]</t>
+          <t>[10.065837503256517, 72.20006727424577]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0307361662577903</v>
+        <v>0.01060572768814994</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0307361662577903</v>
+        <v>0.01060572768814994</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5094474573388856</v>
+        <v>0.8365001460008861</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.6541053773240009, 1.6730002920017721]</t>
+          <t>[0.16981581911296217, 1.50318447288881]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.3825438514969062</v>
+        <v>0.01508310376789823</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3825438514969062</v>
+        <v>0.01508310376789823</v>
       </c>
       <c r="T10" t="n">
-        <v>57.84614678265392</v>
+        <v>66.01511806945804</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.90637447368226, 72.78591909162557]</t>
+          <t>[50.320131970425024, 81.71010416849106]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.782350236989032e-10</v>
+        <v>7.170108951015663e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>6.782350236989032e-10</v>
+        <v>7.170108951015663e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>21.63135135135157</v>
+        <v>19.79923923923935</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.27209209209227</v>
+        <v>17.37577577577587</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.99061061061088</v>
+        <v>22.22270270270283</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_4_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_4_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.29000000000051</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001062828338950217</v>
+        <v>4.17907072947088e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001062828338950217</v>
+        <v>4.17907072947088e-07</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>38.87093925827847</v>
+        <v>52.94606830858201</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[19.90014128266175, 57.84173723389519]</t>
+          <t>[32.47374388962167, 73.41839272754234]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0001568204925483929</v>
+        <v>4.574129048195985e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001568204925483929</v>
+        <v>4.574129048195985e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0000264903318863, 2.257921446724196]</t>
+          <t>[1.3648160276856558, 2.295658295415965]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.45886434841114e-06</v>
+        <v>4.503106776354571e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>4.45886434841114e-06</v>
+        <v>4.503106776354571e-10</v>
       </c>
       <c r="T2" t="n">
-        <v>62.4724186613745</v>
+        <v>56.08143605816215</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.503372343305486, 74.44146497944351]</t>
+          <t>[44.180108402522194, 67.9827637138021]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.06137321154165e-13</v>
+        <v>2.604139126560767e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.06137321154165e-13</v>
+        <v>2.604139126560767e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>18.73333333333371</v>
+        <v>17.54054054054085</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.20180180180213</v>
+        <v>15.70720720720748</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.2648648648653</v>
+        <v>19.37387387387421</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.29000000000051</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01502206297587538</v>
+        <v>0.0001259031074837269</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01502206297587538</v>
+        <v>0.0001259031074837269</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>29.19911776625503</v>
+        <v>51.00780457210519</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[3.6963544936542476, 54.70188103885582]</t>
+          <t>[21.15241030935853, 80.86319883485186]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.02577149107343613</v>
+        <v>0.001261530844618663</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02577149107343613</v>
+        <v>0.001261530844618663</v>
       </c>
       <c r="P3" t="n">
-        <v>1.226447582482502</v>
+        <v>0.6603948521059628</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.0691842226015762, 2.383710942363427]</t>
+          <t>[0.10692107129334616, 1.2138686329185795]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.03828303824289958</v>
+        <v>0.02043627637770284</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03828303824289958</v>
+        <v>0.02043627637770284</v>
       </c>
       <c r="T3" t="n">
-        <v>64.7354401903863</v>
+        <v>63.95415878683018</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.87367847519599, 78.59720190557661]</t>
+          <t>[48.616618748965934, 79.29169882469442]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.416378291376532e-12</v>
+        <v>9.136824630218143e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>3.416378291376532e-12</v>
+        <v>9.136824630218143e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>20.35351351351393</v>
+        <v>22.14864864864903</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.69549549549581</v>
+        <v>19.96846846846881</v>
       </c>
       <c r="Z3" t="n">
-        <v>25.01153153153204</v>
+        <v>24.32882882882925</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.29000000000051</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0003838091702780266</v>
+        <v>9.405431002584841e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003838091702780266</v>
+        <v>9.405431002584841e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>41.33026632083787</v>
+        <v>47.44552028710417</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[18.659273149263072, 64.00125949241267]</t>
+          <t>[24.505435339830868, 70.38560523437746]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0006367954829931133</v>
+        <v>0.0001387765551599252</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0006367954829931133</v>
+        <v>0.0001387765551599252</v>
       </c>
       <c r="P4" t="n">
-        <v>1.465447624197041</v>
+        <v>0.9497106920761933</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.761026448617347, 2.1698687997767347]</t>
+          <t>[0.4465527095192696, 1.452868674633117]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0001284686594120732</v>
+        <v>0.0004298404449838422</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001284686594120732</v>
+        <v>0.0004298404449838422</v>
       </c>
       <c r="T4" t="n">
-        <v>57.08785236312843</v>
+        <v>57.29578559029283</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.20487217329323, 70.97083255296363]</t>
+          <t>[45.01726109547925, 69.57431008510642]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.3439316326469e-10</v>
+        <v>3.499645018223418e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3439316326469e-10</v>
+        <v>3.499645018223418e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>19.39153153153192</v>
+        <v>21.00900900900938</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.55621621621655</v>
+        <v>19.02702702702736</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2268468468473</v>
+        <v>22.99099099099139</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.29000000000051</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001043398071879365</v>
+        <v>1.430906382160479e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001043398071879365</v>
+        <v>1.430906382160479e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>47.79382248088432</v>
+        <v>59.56672197528314</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[20.68850132464634, 74.8991436371223]</t>
+          <t>[32.528807268638715, 86.60463668192757]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0009120575221266414</v>
+        <v>5.830728237388172e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0009120575221266414</v>
+        <v>5.830728237388172e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9119738433844242</v>
+        <v>0.9119738433844251</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.37107901213573147, 1.452868674633117]</t>
+          <t>[0.45913165908319353, 1.3648160276856567]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001438956224608212</v>
+        <v>0.0001957675841339768</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001438956224608212</v>
+        <v>0.0001957675841339768</v>
       </c>
       <c r="T5" t="n">
-        <v>52.49260572312033</v>
+        <v>78.04536502524709</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[38.257640901560116, 66.72757054468056]</t>
+          <t>[64.0858303808674, 92.00489966962678]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.380017516401267e-09</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.380017516401267e-09</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>21.61927927927972</v>
+        <v>21.15765765765802</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.44216216216256</v>
+        <v>19.37387387387421</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.79639639639688</v>
+        <v>22.94144144144184</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.29000000000051</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000107428758387984</v>
+        <v>0.001731426258555602</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000107428758387984</v>
+        <v>0.001731426258555602</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>49.17154188226192</v>
+        <v>39.73977203160543</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[21.415013285267293, 76.92807047925655]</t>
+          <t>[14.111360677391474, 65.36818338581938]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0008681269631478639</v>
+        <v>0.003126219115025863</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0008681269631478639</v>
+        <v>0.003126219115025863</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4968685077749617</v>
+        <v>0.2830263651882694</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.09434212172942402, 1.0880791372793475]</t>
+          <t>[-0.47171060864711656, 1.0377633390236554]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0974253395720226</v>
+        <v>0.4540109772096397</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0974253395720226</v>
+        <v>0.4540109772096397</v>
       </c>
       <c r="T6" t="n">
-        <v>59.7245644022255</v>
+        <v>61.77250768601375</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.318795525218235, 74.13033327923276]</t>
+          <t>[47.247849370702056, 76.29716600132545]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.071862598678308e-10</v>
+        <v>5.251599155542408e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.071862598678308e-10</v>
+        <v>5.251599155542408e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>23.29009009009057</v>
+        <v>23.63513513513555</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.91045045045088</v>
+        <v>20.66216216216252</v>
       </c>
       <c r="Z6" t="n">
-        <v>25.66972972973025</v>
+        <v>26.60810810810857</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.29000000000051</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03864481252724705</v>
+        <v>6.48660212210217e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03864481252724705</v>
+        <v>6.48660212210217e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>28.43266546021532</v>
+        <v>61.67826744516985</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[1.2727709978043151, 55.59255992262633]</t>
+          <t>[37.63994318404175, 85.71659170629795]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.04058840410917419</v>
+        <v>5.250083266128414e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04058840410917419</v>
+        <v>5.250083266128414e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1761052938949232</v>
+        <v>0.5975001042863468</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.515763422452733, 1.1635528346628865]</t>
+          <t>[0.20755266780473036, 0.9874475407679633]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7923996792808596</v>
+        <v>0.00346423380190708</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7923996792808596</v>
+        <v>0.00346423380190708</v>
       </c>
       <c r="T7" t="n">
-        <v>55.42309316855381</v>
+        <v>53.28237857910078</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[40.39936205482209, 70.44682428228552]</t>
+          <t>[40.861160714833474, 65.70359644336808]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.356484340992893e-09</v>
+        <v>4.117084451138453e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.356484340992893e-09</v>
+        <v>4.117084451138453e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7088288288288425</v>
+        <v>22.39639639639678</v>
       </c>
       <c r="Y7" t="n">
-        <v>-4.68333333333343</v>
+        <v>20.86036036036072</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.100990990991115</v>
+        <v>23.93243243243285</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.84000000000013</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008728088524112554</v>
+        <v>0.002607507112933338</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008728088524112554</v>
+        <v>0.002607507112933338</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>43.90451442465343</v>
+        <v>30.73001093206501</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[18.464721963186165, 69.3443068861207]</t>
+          <t>[10.94783417824371, 50.51218768588631]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.001139078217042178</v>
+        <v>0.003077385424029577</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001139078217042178</v>
+        <v>0.003077385424029577</v>
       </c>
       <c r="P8" t="n">
-        <v>0.006289474781961069</v>
+        <v>-0.0503157982556921</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.7610264486173479, 0.77360539818127]</t>
+          <t>[-0.9245527929483472, 0.823921196436963]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.9869012674208855</v>
+        <v>0.908232010854038</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9869012674208855</v>
+        <v>0.908232010854038</v>
       </c>
       <c r="T8" t="n">
-        <v>44.00013368115233</v>
+        <v>52.58112774631034</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[28.277200880807122, 59.72306648149755]</t>
+          <t>[40.53374782309274, 64.62850766952795]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.078561616463247e-06</v>
+        <v>2.509215057955316e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.078561616463247e-06</v>
+        <v>2.509215057955316e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>22.81713713713727</v>
+        <v>0.1857857857857859</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.02786786786798</v>
+        <v>-3.042242242242268</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.60640640640656</v>
+        <v>3.41381381381384</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.84000000000013</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.520937989338503e-05</v>
+        <v>3.440654952902023e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>4.520937989338503e-05</v>
+        <v>3.440654952902023e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>47.67183133600916</v>
+        <v>49.63951208100812</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[22.639588067797817, 72.70407460422051]</t>
+          <t>[27.53148155291136, 71.74754260910488]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0003873465377886021</v>
+        <v>4.428091455044303e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0003873465377886021</v>
+        <v>4.428091455044303e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4465527095192696</v>
+        <v>-0.0503157982556921</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.09434212172942491, 0.9874475407679641]</t>
+          <t>[-0.6100790538502707, 0.5094474573388865]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1033020399899047</v>
+        <v>0.857146783999803</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1033020399899047</v>
+        <v>0.857146783999803</v>
       </c>
       <c r="T9" t="n">
-        <v>50.37795982839627</v>
+        <v>58.86809941960372</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[36.69492126945646, 64.06099838733608]</t>
+          <t>[44.79912711939188, 72.93707171981555]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.47626941174417e-09</v>
+        <v>8.295808484604095e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.47626941174417e-09</v>
+        <v>8.295808484604095e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>21.21673673673686</v>
+        <v>0.1857857857857859</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.25053053053064</v>
+        <v>-1.881081081081101</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.18294294294308</v>
+        <v>2.252652652652673</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.84000000000013</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002463556132360045</v>
+        <v>8.694069427239715e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002463556132360045</v>
+        <v>8.694069427239715e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>41.13295238875114</v>
+        <v>48.49014142754245</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[10.065837503256517, 72.20006727424577]</t>
+          <t>[23.06109813413792, 73.91918472094699]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.01060572768814994</v>
+        <v>0.0003815078821238771</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01060572768814994</v>
+        <v>0.0003815078821238771</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8365001460008861</v>
+        <v>0.3836579616996545</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.16981581911296217, 1.50318447288881]</t>
+          <t>[-0.22013161736865516, 0.9874475407679641]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.01508310376789823</v>
+        <v>0.2071761390862759</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01508310376789823</v>
+        <v>0.2071761390862759</v>
       </c>
       <c r="T10" t="n">
-        <v>66.01511806945804</v>
+        <v>62.26011618034033</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[50.320131970425024, 81.71010416849106]</t>
+          <t>[47.7622846806419, 76.75794768003875]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>7.170108951015663e-11</v>
+        <v>3.987743468769622e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>7.170108951015663e-11</v>
+        <v>3.987743468769622e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>19.79923923923935</v>
+        <v>21.78338338338356</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.37577577577587</v>
+        <v>19.55395395395411</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.22270270270283</v>
+        <v>24.01281281281301</v>
       </c>
     </row>
   </sheetData>
